--- a/DripRegistation.xlsx
+++ b/DripRegistation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Drip_Irrigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Drip_Irrigation_Automate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E64766-6F43-4AFE-9A04-C621B033CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B85EA4-10E7-4397-AE91-D4C1B4FFD0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A825B6E-2DC8-425B-AF52-3432C3143398}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="404">
   <si>
     <t>Aadhaar ID Number</t>
   </si>
@@ -1191,9 +1191,6 @@
     <t>WaterSoilTest_photo</t>
   </si>
   <si>
-    <t>886384876604</t>
-  </si>
-  <si>
     <t>Kasilingam Palayam</t>
   </si>
   <si>
@@ -1215,9 +1212,6 @@
     <t>ஒரு பயிர் மற்றும் பல சர்வே எண்கள்</t>
   </si>
   <si>
-    <t>1242101025848</t>
-  </si>
-  <si>
     <t>C:\Users\ACER\Desktop\drips\Nachimuthu\profile.jpeg</t>
   </si>
   <si>
@@ -1264,6 +1258,9 @@
   </si>
   <si>
     <t>C:\Users\ACER\Desktop\drips\Nachimuthu\passbook.jpeg</t>
+  </si>
+  <si>
+    <t>1234567890987</t>
   </si>
 </sst>
 </file>
@@ -1457,1425 +1454,6 @@
   <dxfs count="49">
     <dxf>
       <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2907,10 +1485,1429 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -2981,54 +2978,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79F52461-5D1F-488B-A647-C3A8A134C512}" name="Drip_Header_JSON__2" displayName="Drip_Header_JSON__2" ref="A1:AS2" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{79F52461-5D1F-488B-A647-C3A8A134C512}" name="Drip_Header_JSON__2" displayName="Drip_Header_JSON__2" ref="A1:AS2" tableType="queryTable" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47">
   <autoFilter ref="A1:AS2" xr:uid="{79F52461-5D1F-488B-A647-C3A8A134C512}"/>
   <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{8D33F862-82D3-456F-B7D9-6868B92605CF}" uniqueName="1" name="Aadhaar ID Number" queryTableFieldId="1" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{3D1D0CD9-EEBC-4048-B2FA-DFFBE875B18B}" uniqueName="2" name="Farmer Type" queryTableFieldId="2" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{F322013B-E4FC-4DDF-BA0F-6D0606E7EE40}" uniqueName="3" name="Registered By" queryTableFieldId="3" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{B5E22B0A-EF28-4CC3-B05E-014487CB5710}" uniqueName="4" name="Department" queryTableFieldId="4" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{DDB1F39A-D0DE-4D0A-960A-85F46FF7B0A9}" uniqueName="5" name="MI Company" queryTableFieldId="5" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{87D17420-D726-4E56-807A-6F1DD538436F}" uniqueName="6" name="Land Ownership" queryTableFieldId="6" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{56DB02E2-1D1D-4797-9057-280C031B9870}" uniqueName="7" name="District" queryTableFieldId="7" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{A63AE2B6-EFC2-4B3E-A403-BE279037E528}" uniqueName="8" name="Block" queryTableFieldId="8" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{6DBCF2AA-FDBE-4F81-B912-342D3FD3BBC4}" uniqueName="9" name="Village" queryTableFieldId="9" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{CCF49EF9-D4D9-4707-B662-7284811D56DE}" uniqueName="10" name="Farmer Name" queryTableFieldId="10" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{B8EC4A7F-58CF-42B1-888C-13DD964C1A99}" uniqueName="11" name="Mobile Number" queryTableFieldId="11" dataDxfId="36"/>
-    <tableColumn id="12" xr3:uid="{51AE1540-8526-4548-98D2-9FC72C2BCD89}" uniqueName="12" name="Email Id" queryTableFieldId="12" dataDxfId="35" dataCellStyle="Hyperlink"/>
-    <tableColumn id="13" xr3:uid="{EA9CB7BC-4F50-4B82-9AD1-23A67A841064}" uniqueName="13" name="Gender" queryTableFieldId="13" dataDxfId="34"/>
-    <tableColumn id="14" xr3:uid="{861719F3-4508-4983-A80A-1B8290A9D75F}" uniqueName="14" name="Land Owner" queryTableFieldId="14" dataDxfId="33"/>
-    <tableColumn id="15" xr3:uid="{BAA5E94F-8FC2-46CA-A04D-3CBFAAA3E121}" uniqueName="15" name="Social Status" queryTableFieldId="15" dataDxfId="32"/>
-    <tableColumn id="16" xr3:uid="{7AC67CA8-B281-4C9A-B32B-ADCD5280D4F5}" uniqueName="16" name="Ration Card Number" queryTableFieldId="16" dataDxfId="31"/>
-    <tableColumn id="26" xr3:uid="{630001F6-96D3-4C16-BB96-0CA609CD14A5}" uniqueName="26" name="Crop Type" queryTableFieldId="26" dataDxfId="30"/>
-    <tableColumn id="27" xr3:uid="{C2744BC0-06D3-4D9C-8BC4-B9859E511CF6}" uniqueName="27" name="Crop / Land Type" queryTableFieldId="27" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{1A7D5BB9-68AD-434D-82CB-4F257A1F602C}" uniqueName="28" name="MI Type" queryTableFieldId="28" dataDxfId="28"/>
-    <tableColumn id="17" xr3:uid="{60D1896B-D918-41F5-87AF-2790888CAA53}" uniqueName="17" name="Survey Number" queryTableFieldId="17" dataDxfId="27"/>
-    <tableColumn id="18" xr3:uid="{BA5DC298-783D-45D8-BB88-FCE8ADFBC336}" uniqueName="18" name="Sub Division Number" queryTableFieldId="18" dataDxfId="26"/>
-    <tableColumn id="19" xr3:uid="{B3201798-21C1-4D1E-AD77-9FC25110C39E}" uniqueName="19" name="Total Land Area (Ha)" queryTableFieldId="19" dataDxfId="25"/>
-    <tableColumn id="20" xr3:uid="{4F3EE1BD-C266-4377-9805-8731ACDEE79D}" uniqueName="20" name="Planned MI Area (Ha)" queryTableFieldId="20" dataDxfId="24"/>
-    <tableColumn id="21" xr3:uid="{FCDD2227-D073-4A26-8EF5-CEC1DEA40FCB}" uniqueName="21" name="Primary Crop" queryTableFieldId="21" dataDxfId="23"/>
-    <tableColumn id="22" xr3:uid="{7ADA591F-6E75-4F2D-AAA9-DE4BBABA8A51}" uniqueName="22" name="Inter Crop" queryTableFieldId="22" dataDxfId="22"/>
-    <tableColumn id="23" xr3:uid="{F3EF56BD-2157-4340-AF96-5ECBF1FD37E5}" uniqueName="23" name="Mi Crop" queryTableFieldId="23" dataDxfId="21"/>
-    <tableColumn id="24" xr3:uid="{88B9F51C-0A6F-4D1E-8484-A86B441A1B0A}" uniqueName="24" name="Crop Spacing" queryTableFieldId="24" dataDxfId="20"/>
-    <tableColumn id="25" xr3:uid="{5BAB521A-FA1E-49CE-AB67-6D79603D8577}" uniqueName="25" name="MI Area Splitup (Ha)" queryTableFieldId="25" dataDxfId="19"/>
-    <tableColumn id="29" xr3:uid="{5E425E21-9A3F-4259-A1F8-53D9C6CE688F}" uniqueName="29" name="Water Source" queryTableFieldId="29" dataDxfId="18"/>
-    <tableColumn id="30" xr3:uid="{1F02B72D-BA5E-4A30-8B12-60CA52AA69F2}" uniqueName="30" name="Source of Power" queryTableFieldId="30" dataDxfId="17"/>
-    <tableColumn id="31" xr3:uid="{F41E5CE4-5DD8-4993-A0BF-E0471EB67006}" uniqueName="31" name="FIG/FPG/FPO/Others" queryTableFieldId="31" dataDxfId="16"/>
-    <tableColumn id="32" xr3:uid="{8FD6814D-8E56-4DBC-90B1-81E6AA9622E4}" uniqueName="32" name="Account Holder Name" queryTableFieldId="32" dataDxfId="15"/>
-    <tableColumn id="33" xr3:uid="{965B4588-416E-465A-99DD-2F18729B9864}" uniqueName="33" name="Account Number" queryTableFieldId="33" dataDxfId="14"/>
-    <tableColumn id="34" xr3:uid="{FFBD805C-0472-4BF3-A8CF-AB7B8CAEF301}" uniqueName="34" name="Bank Name" queryTableFieldId="34" dataDxfId="13"/>
-    <tableColumn id="35" xr3:uid="{4FEE6285-B2BB-4019-B6F7-D5DB8671A5C0}" uniqueName="35" name="Branch Name" queryTableFieldId="35" dataDxfId="12"/>
-    <tableColumn id="36" xr3:uid="{4D8C47C0-2CD3-4B92-831C-DDDAF523E47D}" uniqueName="36" name="Ifsc Code" queryTableFieldId="36" dataDxfId="11"/>
-    <tableColumn id="37" xr3:uid="{A829992F-4381-4B4B-99E7-CD047215C90F}" uniqueName="37" name="Passbook_photo" queryTableFieldId="40" dataDxfId="10"/>
-    <tableColumn id="38" xr3:uid="{2054D371-9926-47EF-B0CD-AEA9C37F5DD6}" uniqueName="38" name="Farmer_photo" queryTableFieldId="41" dataDxfId="9"/>
-    <tableColumn id="39" xr3:uid="{B20DE3BC-4D77-4A95-8D3F-B93CFA3B3178}" uniqueName="39" name="Aadhaar_photo" queryTableFieldId="42" dataDxfId="8"/>
-    <tableColumn id="40" xr3:uid="{78883E65-8236-4863-B1AF-7E3E285EB5B6}" uniqueName="40" name="RationCard_photo" queryTableFieldId="43" dataDxfId="7"/>
-    <tableColumn id="41" xr3:uid="{C616D2D7-0B0F-42BF-8D8F-3F60CF5A1AF6}" uniqueName="41" name="Chitta_photo" queryTableFieldId="44" dataDxfId="6"/>
-    <tableColumn id="42" xr3:uid="{6EB59C4E-1CCF-4086-96E7-003824768EFF}" uniqueName="42" name="Adangal_photo" queryTableFieldId="45" dataDxfId="5"/>
-    <tableColumn id="43" xr3:uid="{AC2FC6EF-C742-4951-BC8A-D6E5D912823A}" uniqueName="43" name="FMB_photo" queryTableFieldId="46" dataDxfId="4"/>
-    <tableColumn id="44" xr3:uid="{F109ADE0-3458-47B9-8FD6-1AC8D115E41C}" uniqueName="44" name="WaterSoilTest_photo" queryTableFieldId="47" dataDxfId="3"/>
-    <tableColumn id="45" xr3:uid="{241998D1-92FF-407D-98FE-DBF17F605138}" uniqueName="45" name="SFMF_photo" queryTableFieldId="48" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8D33F862-82D3-456F-B7D9-6868B92605CF}" uniqueName="1" name="Aadhaar ID Number" queryTableFieldId="1" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{3D1D0CD9-EEBC-4048-B2FA-DFFBE875B18B}" uniqueName="2" name="Farmer Type" queryTableFieldId="2" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{F322013B-E4FC-4DDF-BA0F-6D0606E7EE40}" uniqueName="3" name="Registered By" queryTableFieldId="3" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{B5E22B0A-EF28-4CC3-B05E-014487CB5710}" uniqueName="4" name="Department" queryTableFieldId="4" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{DDB1F39A-D0DE-4D0A-960A-85F46FF7B0A9}" uniqueName="5" name="MI Company" queryTableFieldId="5" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{87D17420-D726-4E56-807A-6F1DD538436F}" uniqueName="6" name="Land Ownership" queryTableFieldId="6" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{56DB02E2-1D1D-4797-9057-280C031B9870}" uniqueName="7" name="District" queryTableFieldId="7" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{A63AE2B6-EFC2-4B3E-A403-BE279037E528}" uniqueName="8" name="Block" queryTableFieldId="8" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{6DBCF2AA-FDBE-4F81-B912-342D3FD3BBC4}" uniqueName="9" name="Village" queryTableFieldId="9" dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{CCF49EF9-D4D9-4707-B662-7284811D56DE}" uniqueName="10" name="Farmer Name" queryTableFieldId="10" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{B8EC4A7F-58CF-42B1-888C-13DD964C1A99}" uniqueName="11" name="Mobile Number" queryTableFieldId="11" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{51AE1540-8526-4548-98D2-9FC72C2BCD89}" uniqueName="12" name="Email Id" queryTableFieldId="12" dataDxfId="34" dataCellStyle="Hyperlink"/>
+    <tableColumn id="13" xr3:uid="{EA9CB7BC-4F50-4B82-9AD1-23A67A841064}" uniqueName="13" name="Gender" queryTableFieldId="13" dataDxfId="33"/>
+    <tableColumn id="14" xr3:uid="{861719F3-4508-4983-A80A-1B8290A9D75F}" uniqueName="14" name="Land Owner" queryTableFieldId="14" dataDxfId="32"/>
+    <tableColumn id="15" xr3:uid="{BAA5E94F-8FC2-46CA-A04D-3CBFAAA3E121}" uniqueName="15" name="Social Status" queryTableFieldId="15" dataDxfId="31"/>
+    <tableColumn id="16" xr3:uid="{7AC67CA8-B281-4C9A-B32B-ADCD5280D4F5}" uniqueName="16" name="Ration Card Number" queryTableFieldId="16" dataDxfId="30"/>
+    <tableColumn id="26" xr3:uid="{630001F6-96D3-4C16-BB96-0CA609CD14A5}" uniqueName="26" name="Crop Type" queryTableFieldId="26" dataDxfId="29"/>
+    <tableColumn id="27" xr3:uid="{C2744BC0-06D3-4D9C-8BC4-B9859E511CF6}" uniqueName="27" name="Crop / Land Type" queryTableFieldId="27" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{1A7D5BB9-68AD-434D-82CB-4F257A1F602C}" uniqueName="28" name="MI Type" queryTableFieldId="28" dataDxfId="27"/>
+    <tableColumn id="17" xr3:uid="{60D1896B-D918-41F5-87AF-2790888CAA53}" uniqueName="17" name="Survey Number" queryTableFieldId="17" dataDxfId="26"/>
+    <tableColumn id="18" xr3:uid="{BA5DC298-783D-45D8-BB88-FCE8ADFBC336}" uniqueName="18" name="Sub Division Number" queryTableFieldId="18" dataDxfId="25"/>
+    <tableColumn id="19" xr3:uid="{B3201798-21C1-4D1E-AD77-9FC25110C39E}" uniqueName="19" name="Total Land Area (Ha)" queryTableFieldId="19" dataDxfId="24"/>
+    <tableColumn id="20" xr3:uid="{4F3EE1BD-C266-4377-9805-8731ACDEE79D}" uniqueName="20" name="Planned MI Area (Ha)" queryTableFieldId="20" dataDxfId="23"/>
+    <tableColumn id="21" xr3:uid="{FCDD2227-D073-4A26-8EF5-CEC1DEA40FCB}" uniqueName="21" name="Primary Crop" queryTableFieldId="21" dataDxfId="22"/>
+    <tableColumn id="22" xr3:uid="{7ADA591F-6E75-4F2D-AAA9-DE4BBABA8A51}" uniqueName="22" name="Inter Crop" queryTableFieldId="22" dataDxfId="21"/>
+    <tableColumn id="23" xr3:uid="{F3EF56BD-2157-4340-AF96-5ECBF1FD37E5}" uniqueName="23" name="Mi Crop" queryTableFieldId="23" dataDxfId="20"/>
+    <tableColumn id="24" xr3:uid="{88B9F51C-0A6F-4D1E-8484-A86B441A1B0A}" uniqueName="24" name="Crop Spacing" queryTableFieldId="24" dataDxfId="19"/>
+    <tableColumn id="25" xr3:uid="{5BAB521A-FA1E-49CE-AB67-6D79603D8577}" uniqueName="25" name="MI Area Splitup (Ha)" queryTableFieldId="25" dataDxfId="18"/>
+    <tableColumn id="29" xr3:uid="{5E425E21-9A3F-4259-A1F8-53D9C6CE688F}" uniqueName="29" name="Water Source" queryTableFieldId="29" dataDxfId="17"/>
+    <tableColumn id="30" xr3:uid="{1F02B72D-BA5E-4A30-8B12-60CA52AA69F2}" uniqueName="30" name="Source of Power" queryTableFieldId="30" dataDxfId="16"/>
+    <tableColumn id="31" xr3:uid="{F41E5CE4-5DD8-4993-A0BF-E0471EB67006}" uniqueName="31" name="FIG/FPG/FPO/Others" queryTableFieldId="31" dataDxfId="15"/>
+    <tableColumn id="32" xr3:uid="{8FD6814D-8E56-4DBC-90B1-81E6AA9622E4}" uniqueName="32" name="Account Holder Name" queryTableFieldId="32" dataDxfId="14"/>
+    <tableColumn id="33" xr3:uid="{965B4588-416E-465A-99DD-2F18729B9864}" uniqueName="33" name="Account Number" queryTableFieldId="33" dataDxfId="13"/>
+    <tableColumn id="34" xr3:uid="{FFBD805C-0472-4BF3-A8CF-AB7B8CAEF301}" uniqueName="34" name="Bank Name" queryTableFieldId="34" dataDxfId="12"/>
+    <tableColumn id="35" xr3:uid="{4FEE6285-B2BB-4019-B6F7-D5DB8671A5C0}" uniqueName="35" name="Branch Name" queryTableFieldId="35" dataDxfId="11"/>
+    <tableColumn id="36" xr3:uid="{4D8C47C0-2CD3-4B92-831C-DDDAF523E47D}" uniqueName="36" name="Ifsc Code" queryTableFieldId="36" dataDxfId="10"/>
+    <tableColumn id="37" xr3:uid="{A829992F-4381-4B4B-99E7-CD047215C90F}" uniqueName="37" name="Passbook_photo" queryTableFieldId="40" dataDxfId="9"/>
+    <tableColumn id="38" xr3:uid="{2054D371-9926-47EF-B0CD-AEA9C37F5DD6}" uniqueName="38" name="Farmer_photo" queryTableFieldId="41" dataDxfId="8"/>
+    <tableColumn id="39" xr3:uid="{B20DE3BC-4D77-4A95-8D3F-B93CFA3B3178}" uniqueName="39" name="Aadhaar_photo" queryTableFieldId="42" dataDxfId="7"/>
+    <tableColumn id="40" xr3:uid="{78883E65-8236-4863-B1AF-7E3E285EB5B6}" uniqueName="40" name="RationCard_photo" queryTableFieldId="43" dataDxfId="6"/>
+    <tableColumn id="41" xr3:uid="{C616D2D7-0B0F-42BF-8D8F-3F60CF5A1AF6}" uniqueName="41" name="Chitta_photo" queryTableFieldId="44" dataDxfId="5"/>
+    <tableColumn id="42" xr3:uid="{6EB59C4E-1CCF-4086-96E7-003824768EFF}" uniqueName="42" name="Adangal_photo" queryTableFieldId="45" dataDxfId="4"/>
+    <tableColumn id="43" xr3:uid="{AC2FC6EF-C742-4951-BC8A-D6E5D912823A}" uniqueName="43" name="FMB_photo" queryTableFieldId="46" dataDxfId="3"/>
+    <tableColumn id="44" xr3:uid="{F109ADE0-3458-47B9-8FD6-1AC8D115E41C}" uniqueName="44" name="WaterSoilTest_photo" queryTableFieldId="47" dataDxfId="2"/>
+    <tableColumn id="45" xr3:uid="{241998D1-92FF-407D-98FE-DBF17F605138}" uniqueName="45" name="SFMF_photo" queryTableFieldId="48" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3037,7 +3034,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5032C614-8097-4B44-B02B-A05857ED09C8}" name="Table2" displayName="Table2" ref="A1:C124" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{87E10E0A-D887-4F4D-9C25-3174E6DBAD7D}" name="Village" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{87E10E0A-D887-4F4D-9C25-3174E6DBAD7D}" name="Village" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{4A682369-4BA8-47D2-A3BF-623BE90C5CC1}" name="Primary Crop"/>
     <tableColumn id="3" xr3:uid="{DB334ADE-3070-4D5B-9BA2-4AE9DF451034}" name="Bank Names"/>
   </tableColumns>
@@ -3344,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05E8B43-8EE0-4E44-8504-3DE0CB36810D}">
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3526,13 +3523,10 @@
         <v>379</v>
       </c>
       <c r="AS1" s="17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>380</v>
-      </c>
       <c r="B2" s="11" t="s">
         <v>371</v>
       </c>
@@ -3551,53 +3545,47 @@
       <c r="G2" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>383</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>384</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>362</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O2" s="11" t="s">
         <v>363</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>364</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S2" s="11" t="s">
         <v>365</v>
       </c>
       <c r="T2" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="W2" s="11" t="s">
         <v>399</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>400</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="X2" s="11" t="s">
         <v>220</v>
@@ -3624,43 +3612,43 @@
         <v>370</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="AH2" s="11" t="s">
         <v>263</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AJ2" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AK2" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AL2" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="AN2" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AP2" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AR2" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="AQ2" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="AR2" s="14" t="s">
-        <v>395</v>
-      </c>
       <c r="AS2" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.35">
@@ -4835,7 +4823,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>344</v>
